--- a/biology/Zoologie/Aphodius/Aphodius.xlsx
+++ b/biology/Zoologie/Aphodius/Aphodius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphodius est un genre d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Aphodiinae. Ces espèces de bousiers se nourrissent essentiellement d'excréments. Ils sont de petite taille et ont une forme cylindrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Supercherie scientifique : Chimère</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1928, Hoffman décrit Aphodius arvernicus, une espèce endémique d'Auvergne. Une fois réétudiés en 1999, les spécimens s'avèrent être une supercherie scientifique ; les chimères étant constituées d'une tête d'Acanthobodilus immundus et d'un corps d'Aphodius rufus[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1928, Hoffman décrit Aphodius arvernicus, une espèce endémique d'Auvergne. Une fois réétudiés en 1999, les spécimens s'avèrent être une supercherie scientifique ; les chimères étant constituées d'une tête d'Acanthobodilus immundus et d'un corps d'Aphodius rufus. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aphodius ater (De Geer, 1774)
@@ -626,9 +642,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database les espèces fossiles s'établissent à[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database les espèces fossiles s'établissent à :
 †Aphodius aboriginalis Wickham 1912
 †Aphodius anteactus Krell 2000
 †Aphodius boryslavicus Lomnicki 1894
